--- a/Assets/ExcelData/Fish.xlsx
+++ b/Assets/ExcelData/Fish.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E75402-E692-405A-AE79-4ADA43173E93}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61496F94-6F60-45A4-A597-3BF7E787676A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,26 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>aaaaa</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bbbbb</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cccccc</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ddddd</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>eeeee</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -55,6 +35,26 @@
   </si>
   <si>
     <t>Name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>takashi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shinzou</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mayuge</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -383,23 +383,23 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -413,7 +413,7 @@
         <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -427,7 +427,7 @@
         <v>1000</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -441,7 +441,7 @@
         <v>200</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -455,7 +455,7 @@
         <v>400</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -469,7 +469,7 @@
         <v>50000</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ExcelData/Fish.xlsx
+++ b/Assets/ExcelData/Fish.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61496F94-6F60-45A4-A597-3BF7E787676A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC3DC90-A4AD-45E3-8D37-76749CD032C0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -38,23 +38,38 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>meary</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>takashi</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>shinzou</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abe</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mayuge</t>
+    <t>Fuedai</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gessor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ika</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KakureKumanomi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KiiroHagi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Koi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Octopus</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RokusenSuzuMedai</t>
+  </si>
+  <si>
+    <t>Tuna</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -380,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -424,10 +439,10 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -438,10 +453,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>200</v>
+        <v>4000</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -449,13 +464,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>400</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -463,13 +478,69 @@
         <v>4</v>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>50000</v>
       </c>
       <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>3000</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>10000</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>30000</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
         <v>8</v>
+      </c>
+      <c r="B10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1000</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
